--- a/SESPayments.xlsx
+++ b/SESPayments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TransitusNexgen\SES Waters project\NewSES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C04C869-47F2-4704-B4DF-48F33296D619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACDF8DE-4F04-4EE7-B4BA-4DAF0357C1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -562,7 +568,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +644,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -731,7 +740,10 @@
         <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -768,7 +780,10 @@
         <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">

--- a/SESPayments.xlsx
+++ b/SESPayments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TransitusNexgen\SES Waters project\NewSES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA189AB-ABB7-47DA-8E88-38C5CCA6AA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291FBB6-34E9-442F-9B55-58DAC8002D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +655,9 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -745,6 +751,9 @@
       <c r="I8" t="s">
         <v>58</v>
       </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
@@ -782,6 +791,9 @@
       <c r="I10" t="s">
         <v>58</v>
       </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
@@ -868,6 +880,9 @@
       </c>
       <c r="I16" t="s">
         <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
       </c>
       <c r="K16" t="s">
         <v>54</v>

--- a/SESPayments.xlsx
+++ b/SESPayments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TransitusNexgen\SES Waters project\NewSES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291FBB6-34E9-442F-9B55-58DAC8002D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2284377F-B875-4761-AAAF-8E67412EF18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -196,13 +196,7 @@
     <t>Login to SNAP</t>
   </si>
   <si>
-    <t>Rejected</t>
-  </si>
-  <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -576,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,9 +649,6 @@
       <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -751,9 +742,6 @@
       <c r="I8" t="s">
         <v>58</v>
       </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
@@ -791,9 +779,6 @@
       <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
@@ -881,9 +866,6 @@
       <c r="I16" t="s">
         <v>58</v>
       </c>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
       <c r="K16" t="s">
         <v>54</v>
       </c>
@@ -905,7 +887,7 @@
         <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
         <v>54</v>
